--- a/assets/Import Data Template.xlsx
+++ b/assets/Import Data Template.xlsx
@@ -5,25 +5,23 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\firos\Desktop\SK - Burger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\htdocs\SmartKitchen\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Items" sheetId="2" r:id="rId1"/>
     <sheet name="Groups" sheetId="1" r:id="rId2"/>
-    <sheet name="Kitchens" sheetId="3" r:id="rId3"/>
-    <sheet name="Menus" sheetId="4" r:id="rId4"/>
-    <sheet name="Seating" sheetId="5" r:id="rId5"/>
-    <sheet name="Taxes" sheetId="6" r:id="rId6"/>
-    <sheet name="Users" sheetId="7" r:id="rId7"/>
+    <sheet name="Seating" sheetId="5" r:id="rId3"/>
+    <sheet name="Users" sheetId="7" r:id="rId4"/>
+    <sheet name="Taxes" sheetId="6" r:id="rId5"/>
+    <sheet name="Customers" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="GroupNames">Groups[Name]</definedName>
-    <definedName name="KitchenNames">Kitchens[Name]</definedName>
-    <definedName name="MenuNames">Menus[Name]</definedName>
+    <definedName name="MenuNames">#REF!</definedName>
     <definedName name="TaxNames">Taxes[Name]</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="240">
   <si>
     <t>ID</t>
   </si>
@@ -699,13 +697,70 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>5,6,7,8</t>
+  </si>
+  <si>
+    <t>Price List</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Cash Customer</t>
+  </si>
+  <si>
+    <t>9,10,11</t>
+  </si>
+  <si>
+    <t>12,13</t>
+  </si>
+  <si>
+    <t>Table 5</t>
+  </si>
+  <si>
+    <t>14,15</t>
+  </si>
+  <si>
+    <t>Waiter</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>Receptionist</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
+  <si>
+    <t>Delivery Boy</t>
+  </si>
+  <si>
+    <t>4444</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,6 +778,34 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -745,10 +828,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -756,8 +840,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="75">
@@ -766,63 +854,8 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -833,10 +866,8 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -846,10 +877,52 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1132,6 +1205,33 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1194,33 +1294,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
@@ -1843,40 +1916,33 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Kitchens" displayName="Kitchens" ref="A1:B3" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:B3"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Seating" displayName="Seating" ref="A1:D6" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:D6"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="ID" dataDxfId="36"/>
-    <tableColumn id="2" name="Name" dataDxfId="35"/>
+    <tableColumn id="2" name="Table Name" dataDxfId="35"/>
+    <tableColumn id="3" name="Seats" dataDxfId="34"/>
+    <tableColumn id="4" name="Price List" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Menus" displayName="Menus" ref="A1:B2" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A1:B2"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="ID" dataDxfId="32"/>
-    <tableColumn id="2" name="Name" dataDxfId="31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Users" displayName="Users" ref="A1:E6" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:E6"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="ID" dataDxfId="30"/>
+    <tableColumn id="2" name="Role" dataDxfId="29"/>
+    <tableColumn id="3" name="Name" dataDxfId="28"/>
+    <tableColumn id="4" name="PIN" dataDxfId="27"/>
+    <tableColumn id="5" name="Password" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Seating" displayName="Seating" ref="A1:C5" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:C5"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="ID" dataDxfId="28"/>
-    <tableColumn id="2" name="Table Name" dataDxfId="27"/>
-    <tableColumn id="3" name="Seats" dataDxfId="26"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Taxes" displayName="Taxes" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:Q3"/>
   <tableColumns count="17">
@@ -1902,15 +1968,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Users" displayName="Users" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Customers" displayName="Customers" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="2">
   <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Role" dataDxfId="3"/>
-    <tableColumn id="3" name="Name" dataDxfId="2"/>
-    <tableColumn id="4" name="PIN" dataDxfId="1"/>
-    <tableColumn id="5" name="Password" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="0"/>
+    <tableColumn id="2" name="Name" dataDxfId="1"/>
+    <tableColumn id="3" name="Address" dataDxfId="5"/>
+    <tableColumn id="4" name="Phone" dataDxfId="4"/>
+    <tableColumn id="5" name="Email" dataDxfId="3" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2181,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116:M116"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:Y122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9446,12 +9512,9 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:V122">
       <formula1>GroupNames</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X122">
-      <formula1>KitchenNames</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y122">
       <formula1>TaxNames</formula1>
@@ -9470,7 +9533,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A1:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9937,39 +10000,100 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D6" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -9982,31 +10106,119 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>217</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -10019,87 +10231,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10244,18 +10379,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -10263,16 +10400,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -10280,22 +10417,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>220</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>